--- a/informes/codi latex/img_from_word/excel/LSTM.xlsx
+++ b/informes/codi latex/img_from_word/excel/LSTM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcaix\UAB\TFG\informes\codi latex\img_from_word\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D4574F-830D-4B0D-B67B-FAD9A5755048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D35815B-E14E-4A01-B214-2960B82FAA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="3330" windowWidth="25425" windowHeight="14685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,22 +34,22 @@
     <t>nou preprocessament</t>
   </si>
   <si>
-    <t>Reddit - Nou</t>
+    <t>Reddit - preprocessament Anterior</t>
   </si>
   <si>
-    <t>Twitter3 - Nou</t>
+    <t>Reddit - preprocessament Nou</t>
   </si>
   <si>
-    <t>Twitter Scale - Nou</t>
+    <t>Twitter3 - preprocessament Anterior</t>
   </si>
   <si>
-    <t>Twitter Scale - Anterior</t>
+    <t>Twitter3 - preprocessament Nou</t>
   </si>
   <si>
-    <t>Reddit - Anterior</t>
+    <t>Twitter Scale - preprocessament Anterior</t>
   </si>
   <si>
-    <t>Twitter3 - Anterior</t>
+    <t>Twitter Scale - preprocessament Nou</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1474,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Reddit - Anterior</c:v>
+                  <c:v>Reddit - preprocessament Anterior</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1531,7 +1531,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Reddit - Nou</c:v>
+                  <c:v>Reddit - preprocessament Nou</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1589,7 +1589,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Twitter3 - Anterior</c:v>
+                  <c:v>Twitter3 - preprocessament Anterior</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1646,7 +1646,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Twitter3 - Nou</c:v>
+                  <c:v>Twitter3 - preprocessament Nou</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1704,7 +1704,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Twitter Scale - Anterior</c:v>
+                  <c:v>Twitter Scale - preprocessament Anterior</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1763,7 +1763,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Twitter Scale - Nou</c:v>
+                  <c:v>Twitter Scale - preprocessament Nou</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1888,7 +1888,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$D$1</c15:sqref>
@@ -1914,7 +1914,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$D$2:$D$6</c15:sqref>
@@ -1928,7 +1928,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-03EB-4AC1-82FF-A741BF9B5824}"/>
                   </c:ext>
@@ -1941,7 +1941,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$G$1</c15:sqref>
@@ -1969,7 +1969,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$G$2:$G$6</c15:sqref>
@@ -1983,7 +1983,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-03EB-4AC1-82FF-A741BF9B5824}"/>
                   </c:ext>
@@ -1996,7 +1996,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$1</c15:sqref>
@@ -2024,7 +2024,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$2:$H$6</c15:sqref>
@@ -2038,7 +2038,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-03EB-4AC1-82FF-A741BF9B5824}"/>
                   </c:ext>
@@ -2255,9 +2255,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34170457895038425"/>
-          <c:y val="0.28165558850598221"/>
-          <c:w val="0.33406905343552451"/>
+          <c:x val="0.29581234671400775"/>
+          <c:y val="0.28598459283498651"/>
+          <c:w val="0.54714007248804564"/>
           <c:h val="0.33739203054163686"/>
         </c:manualLayout>
       </c:layout>
@@ -5106,30 +5106,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51781FE0-137A-4C55-A562-858F4AF7BC5F}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
